--- a/Scrapped_data/JUNE/MAHARASHTRA/AMAR ENTERPRISES/PW.xlsx
+++ b/Scrapped_data/JUNE/MAHARASHTRA/AMAR ENTERPRISES/PW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="76">
   <si>
     <t>StockistName</t>
   </si>
@@ -44,6 +44,204 @@
   </si>
   <si>
     <t>DivisionName</t>
+  </si>
+  <si>
+    <t>AMAR ENTERPRISES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAISAHEB MEDICAL STORES SHIVNE,LAXMI-NIWAS NDA RD                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAND HEALTHCARE KARVENAGAR,SHOP NO.1,                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANUSHREE MEDICAL GEN&amp; STO PASHAN, NR SHUBHTEJ  GARDEN,                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTHA MEDICO &amp; GE ST DHANORI                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAITANYA MEDICAL HADAPSAR S.29 PRATIK NAGAR ,                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOICE MEDICO KHARADI                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DILIP MEDICALS DAUND                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMILY CHEMIST&amp;DRUGIST RAM NAGAR YERWADA,SR.NO.14                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUPTA MEDICAL STORES GHORPADIGAON,160 PHILIPS                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GURUDATT MEDICAL SHIRWAL                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARI MEDICARE KOTHRUD BUS STOP KARVE ROD                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINDAVI MEDICAL YERWADA, LAXMI NAGAR NR URDU                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAYDEEP MEDICO HADAPSAR,KALEPADAL,SASANENAGAR                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXMI MEDICAL PUNE SATARA ROOD.4367010                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDLIFE MEDICAL DHAYARI,DHAYRESHWAR MANDIR,                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUKTAI MEDICAL &amp; GEN KONDHWA                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW JANANI MEDICAL KONDHANPUR RD KHED SHIVAPUR                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW ROYAL CHEMIST DHANKAWADI,CHAVAN NAGAR,SHOP N                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW VIGHNAHARTA MEDICO WAGHOLI                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM MEDICAL&amp;GEN STORE DHANKAWADI, SAMBHAJINAGAR                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM MEDICO KARAN BAZAR,SOMNATH NAGAR,                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM MEDICO WADGAON BK. SUNCITY ROAD                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM MEDICO&amp; GEN STORES HADAPSAR UDYOG NAGAR                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEARL MEDICO DHANORI                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POONAM MEDICAL WADGAON SHERI,48/1 ICHATRIPTI                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PULSE MEDICO WADGAON SHERI, SHOP NO.G-9                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAVIRAJ MEDICAL GHORPADI PETH.6438655                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMARTHA MEDICALS DHANKAWADI, SHOP NO.3,                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDDHIVINAYAK MEDICA DAUND                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASU MED.&amp; GEN.STORE(ST) KOTHRUD,GANDHI BHAVAN RD,SHOP                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELLNESS MEDICO MUNDHWA,KESHAVNAGAR,HANUMAN                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELLOCITY CHEMIST MUNDHWA KESHAVNAGAR, LAXMI                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YASH MEDICAL HOUSE CHANDAN NAGAR,KHARADI BY-PASS,                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUG MEDICAL PHURSUNGI                                         </t>
+  </si>
+  <si>
+    <t>ZALOTER CREAM</t>
+  </si>
+  <si>
+    <t>TEXFIN OD</t>
+  </si>
+  <si>
+    <t>LOISTO FACE</t>
+  </si>
+  <si>
+    <t>IOXI 30</t>
+  </si>
+  <si>
+    <t>F-WASH SHAMPOO</t>
+  </si>
+  <si>
+    <t>LUWES LITE</t>
+  </si>
+  <si>
+    <t>BIO-ITRA 200</t>
+  </si>
+  <si>
+    <t>BIO-LIZOL CREAM</t>
+  </si>
+  <si>
+    <t>TEXGLOW GEL</t>
+  </si>
+  <si>
+    <t>S-LAVA FACE</t>
+  </si>
+  <si>
+    <t>ALVIZINE 10</t>
+  </si>
+  <si>
+    <t>F-TEX SOAP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>160.71</t>
+  </si>
+  <si>
+    <t>38.57</t>
+  </si>
+  <si>
+    <t>152.54</t>
+  </si>
+  <si>
+    <t>54.91</t>
+  </si>
+  <si>
+    <t>141.43</t>
+  </si>
+  <si>
+    <t>160.72</t>
+  </si>
+  <si>
+    <t>192.85</t>
+  </si>
+  <si>
+    <t>102.85</t>
+  </si>
+  <si>
+    <t>96.42</t>
+  </si>
+  <si>
+    <t>109.83</t>
+  </si>
+  <si>
+    <t>42.42</t>
+  </si>
+  <si>
+    <t>67.11</t>
+  </si>
+  <si>
+    <t>BIOS GENERAL</t>
   </si>
 </sst>
 </file>
@@ -401,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +637,1478 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" t="s">
+        <v>73</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
